--- a/party.xlsx
+++ b/party.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>길드원 리스트</t>
   </si>
@@ -46,7 +46,10 @@
     <t>페파하누</t>
   </si>
   <si>
-    <t>53층</t>
+    <t>267</t>
+  </si>
+  <si>
+    <t>패스파인더</t>
   </si>
   <si>
     <t>14분 45초</t>
@@ -55,7 +58,13 @@
     <t>샤내린</t>
   </si>
   <si>
-    <t>47층</t>
+    <t>250</t>
+  </si>
+  <si>
+    <t>비숍</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>13분 43초</t>
@@ -64,7 +73,10 @@
     <t>쿵쿵쿵형저</t>
   </si>
   <si>
-    <t>40층</t>
+    <t>231</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>14분 38초</t>
@@ -74,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +99,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -113,7 +141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -123,7 +151,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,24 +443,28 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -452,33 +490,51 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>53</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -487,7 +543,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/party.xlsx
+++ b/party.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>길드원 리스트</t>
   </si>
@@ -52,6 +52,9 @@
     <t>패스파인더</t>
   </si>
   <si>
+    <t>53</t>
+  </si>
+  <si>
     <t>14분 45초</t>
   </si>
   <si>
@@ -80,13 +83,67 @@
   </si>
   <si>
     <t>14분 38초</t>
+  </si>
+  <si>
+    <t>잔나벚</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>아크</t>
+  </si>
+  <si>
+    <t>14분 11초</t>
+  </si>
+  <si>
+    <t>설화아린</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>아크메이지(썬,콜)</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>14분 27초</t>
+  </si>
+  <si>
+    <t>1수로 1파티</t>
+  </si>
+  <si>
+    <t>1수로 2파티</t>
+  </si>
+  <si>
+    <t>1수로 3파티</t>
+  </si>
+  <si>
+    <t>2수로 1파티</t>
+  </si>
+  <si>
+    <t>2수로 2파티</t>
+  </si>
+  <si>
+    <t>2수로 3파티</t>
+  </si>
+  <si>
+    <t>3수로 1파티</t>
+  </si>
+  <si>
+    <t>3수로 2파티</t>
+  </si>
+  <si>
+    <t>3수로 3파티</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,23 +168,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,33 +237,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="40% - 강조색5" xfId="4" builtinId="47"/>
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,101 +609,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -543,21 +746,362 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="6" width="14.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="2" customWidth="1"/>
+    <col min="10" max="15" width="14.125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="J1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>